--- a/data/trans_dic/P33b_R1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R1-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 9,7</t>
+          <t>1,63; 9,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,28; 13,47</t>
+          <t>4,55; 13,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 9,66</t>
+          <t>4,04; 10,39</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,32; 8,91</t>
+          <t>3,17; 9,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,57; 12,31</t>
+          <t>6,6; 12,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,81; 9,64</t>
+          <t>5,55; 9,57</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,57; 13,4</t>
+          <t>7,64; 13,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,53; 14,24</t>
+          <t>9,47; 14,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,22; 12,93</t>
+          <t>9,43; 12,94</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,78; 15,09</t>
+          <t>9,21; 15,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,96; 21,87</t>
+          <t>17,25; 22,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,63; 17,79</t>
+          <t>13,67; 17,94</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,02; 20,14</t>
+          <t>13,91; 19,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,5; 33,74</t>
+          <t>27,59; 33,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,65; 25,93</t>
+          <t>21,6; 25,81</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,86; 24,91</t>
+          <t>19,72; 25,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,13; 35,46</t>
+          <t>20,88; 35,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,82; 29,84</t>
+          <t>21,51; 29,73</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,96; 14,37</t>
+          <t>11,89; 14,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,54; 21,91</t>
+          <t>18,66; 21,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,01; 18,06</t>
+          <t>16,06; 18,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R1-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 9,38</t>
+          <t>1,73; 9,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,55; 13,71</t>
+          <t>4,28; 13,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,04; 10,39</t>
+          <t>3,74; 9,66</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 9,11</t>
+          <t>3,32; 8,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,6; 12,64</t>
+          <t>6,57; 12,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,55; 9,57</t>
+          <t>5,81; 9,64</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,64; 13,16</t>
+          <t>7,57; 13,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,47; 14,11</t>
+          <t>9,53; 14,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,43; 12,94</t>
+          <t>9,22; 12,93</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,21; 15,24</t>
+          <t>8,78; 15,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,25; 22,32</t>
+          <t>16,96; 21,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,67; 17,94</t>
+          <t>13,63; 17,79</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,91; 19,92</t>
+          <t>14,02; 20,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,59; 33,68</t>
+          <t>27,5; 33,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,6; 25,81</t>
+          <t>21,65; 25,93</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,72; 25,05</t>
+          <t>19,86; 24,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,88; 35,09</t>
+          <t>22,13; 35,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,51; 29,73</t>
+          <t>20,82; 29,84</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,89; 14,36</t>
+          <t>11,96; 14,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,66; 21,94</t>
+          <t>18,54; 21,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,06; 18,08</t>
+          <t>16,01; 18,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R1-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,28%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 9,7</t>
+          <t>1,67; 9,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,28; 13,47</t>
+          <t>4,33; 13,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 9,66</t>
+          <t>3,74; 9,62</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>7,11%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,32; 8,91</t>
+          <t>3,45; 9,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,57; 12,31</t>
+          <t>4,89; 11,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,81; 9,64</t>
+          <t>5,17; 9,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>10,85%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,57; 13,4</t>
+          <t>7,5; 13,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,53; 14,24</t>
+          <t>9,48; 14,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,22; 12,93</t>
+          <t>9,11; 12,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>13,61%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,78; 15,09</t>
+          <t>3,53; 14,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,96; 21,87</t>
+          <t>15,8; 21,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,63; 17,79</t>
+          <t>8,08; 16,73</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>30,49%</t>
+          <t>30,16%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>23,26%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,02; 20,14</t>
+          <t>13,86; 19,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,5; 33,74</t>
+          <t>27,25; 33,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,65; 25,93</t>
+          <t>21,34; 25,49</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>18,27%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>30,65%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>18,71%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,86; 24,91</t>
+          <t>15,63; 21,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,13; 35,46</t>
+          <t>7,1; 29,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,82; 29,84</t>
+          <t>9,58; 24,44</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>38,08%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>33,37%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,96; 14,37</t>
+          <t>22,38; 30,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,54; 21,91</t>
+          <t>35,03; 41,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,01; 18,06</t>
+          <t>30,79; 36,17</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12,03%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>19,3%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>15,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>9,46; 13,46</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>15,69; 21,07</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>13,66; 17,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P33b_R1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R1-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,67; 9,84</t>
+          <t>1,9; 10,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,33; 13,57</t>
+          <t>4,47; 14,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 9,62</t>
+          <t>3,88; 10,05</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 9,4</t>
+          <t>3,46; 9,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,89; 11,07</t>
+          <t>4,83; 11,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,4</t>
+          <t>5,03; 9,64</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,5; 13,23</t>
+          <t>7,58; 13,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,48; 14,14</t>
+          <t>9,48; 14,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,11; 12,76</t>
+          <t>9,23; 12,84</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,53; 14,01</t>
+          <t>4,2; 14,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,8; 21,3</t>
+          <t>15,81; 21,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,08; 16,73</t>
+          <t>8,02; 16,79</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,86; 19,89</t>
+          <t>13,93; 19,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,25; 33,34</t>
+          <t>27,21; 33,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,34; 25,49</t>
+          <t>21,25; 25,28</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,63; 21,73</t>
+          <t>15,33; 21,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,1; 29,51</t>
+          <t>7,85; 29,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,58; 24,44</t>
+          <t>10,05; 24,32</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>22,38; 30,79</t>
+          <t>22,23; 30,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>35,03; 41,41</t>
+          <t>35,03; 41,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,79; 36,17</t>
+          <t>30,76; 36,0</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9,46; 13,46</t>
+          <t>9,61; 13,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>15,69; 21,07</t>
+          <t>15,57; 20,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,66; 17,03</t>
+          <t>13,67; 16,9</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene dificultad para dormirse por la noche</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>19143</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25655</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>44798</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7616; 40560</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13997; 44523</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>27641; 71667</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>25274</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>41202</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>66476</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14666; 41466</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>24718; 57439</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>47045; 90134</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>53678</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>63380</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>117058</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>40628; 69943</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>51405; 76573</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>99590; 138473</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>83899</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>133920</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>217819</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>37304; 125539</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>112647; 152454</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>128275; 268655</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>92731</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>164391</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>257122</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>78037; 110591</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>148297; 180767</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>234908; 279423</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>67263</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>115336</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>182599</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>56426; 79144</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>47718; 181116</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>98070; 237371</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>74257</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>162175</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>236431</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>62845; 84910</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>149185; 177055</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>217972; 255117</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1738</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>416243</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>706060</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1122303</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>332455; 465747</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>569558; 767656</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>972934; 1202938</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>